--- a/correlation.xlsx
+++ b/correlation.xlsx
@@ -351,7 +351,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lavaan 0.6.15</t>
+          <t>lavaan 0.6.16</t>
         </is>
       </c>
     </row>
